--- a/mail_list.xlsx
+++ b/mail_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Next21-Eng\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Next21-Eng\Desktop\asano\DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55610EC3-3EA8-4A49-9D56-DA289B9E57DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C31088-FF85-4B0E-86AA-33077C450FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="1230" windowWidth="17565" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9810" yWindow="300" windowWidth="17565" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Email</t>
   </si>
@@ -44,6 +44,17 @@
     </rPh>
     <rPh sb="3" eb="6">
       <t>コウタロウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>next21.asano@gmail.com</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>浅野</t>
+    <rPh sb="0" eb="2">
+      <t>アサノ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -433,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -468,10 +479,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{65FCA521-E29B-4461-805F-E7C2A539627D}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{52AC87FA-C6A3-411D-9803-651874A5F770}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
